--- a/UPPER_RUSSIAN_RIVER/config_file.xlsx
+++ b/UPPER_RUSSIAN_RIVER/config_file.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpedroja\DWRAT\UPPER_RUSSIAN_RIVER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A089967C-F0A2-41E4-A4A4-88668CE6D7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6384182-C13B-489A-B820-7DDBCCFDF61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>6000</v>
@@ -520,13 +520,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>2380</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>1500</v>
+        <v>905</v>
       </c>
       <c r="I3" s="1">
-        <v>1200</v>
+        <v>4900</v>
       </c>
       <c r="J3" s="1">
         <v>600</v>
@@ -561,13 +561,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>656.67715510835535</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>1376.2034444464825</v>
       </c>
       <c r="I4">
-        <v>1157.5507345624319</v>
+        <v>1157.55</v>
       </c>
       <c r="J4">
         <v>858.58360677688916</v>
